--- a/src/main/webapp/WEB-INF/public/apartment.xlsx
+++ b/src/main/webapp/WEB-INF/public/apartment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>公寓号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>博文苑6号楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -402,60 +406,81 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/public/apartment.xlsx
+++ b/src/main/webapp/WEB-INF/public/apartment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="11070" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>公寓号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +52,18 @@
   </si>
   <si>
     <t>楼层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寝室数/层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床位数/寝室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用/人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,18 +408,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +431,17 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -427,8 +451,17 @@
       <c r="C2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -438,8 +471,17 @@
       <c r="C3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -449,8 +491,17 @@
       <c r="C4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -460,8 +511,17 @@
       <c r="C5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -471,8 +531,17 @@
       <c r="C6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -481,6 +550,15 @@
       </c>
       <c r="C7">
         <v>13</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/public/apartment.xlsx
+++ b/src/main/webapp/WEB-INF/public/apartment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="11070" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="11070" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -489,10 +489,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -529,10 +529,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -549,10 +549,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>4</v>

--- a/src/main/webapp/WEB-INF/public/apartment.xlsx
+++ b/src/main/webapp/WEB-INF/public/apartment.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>公寓号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +55,6 @@
   </si>
   <si>
     <t>寝室数/层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床位数/寝室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -408,20 +403,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,11 +431,8 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -455,13 +446,10 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -475,13 +463,10 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -495,13 +480,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -515,13 +497,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -535,13 +514,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -555,9 +531,6 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
         <v>1200</v>
       </c>
     </row>
